--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arifx\eclipse-workspace\FinalProject\Aug2023SeleniumProject\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69B56E0-6BCE-465A-BC5D-3599427C37B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="540" windowWidth="27495" windowHeight="11955"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="credential" sheetId="1" r:id="rId1"/>
@@ -17,18 +23,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>secret_sauce</t>
-  </si>
-  <si>
-    <t>startand_user</t>
-  </si>
-  <si>
     <t>Swag Labs</t>
   </si>
   <si>
@@ -51,12 +45,24 @@
   </si>
   <si>
     <t>Products</t>
+  </si>
+  <si>
+    <t>demo.user</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>demo.pass</t>
+  </si>
+  <si>
+    <t>Kimbel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -98,14 +104,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -143,7 +152,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -215,7 +224,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -388,33 +397,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -423,47 +432,47 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.75">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
